--- a/xls/UJEP-Fakulta sociálně ekonomická_Predatory.xlsx
+++ b/xls/UJEP-Fakulta sociálně ekonomická_Predatory.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
   <si>
     <t>YEAR</t>
   </si>
@@ -73,6 +73,12 @@
     <t>VO</t>
   </si>
   <si>
+    <t>CATEGORY_RIV_SHORT</t>
+  </si>
+  <si>
+    <t>Record_FOS_category</t>
+  </si>
+  <si>
     <t>Jsc</t>
   </si>
   <si>
@@ -128,6 +134,12 @@
   </si>
   <si>
     <t>UJEP-Univerzita Jana Evangelisty Purkyně v Ústí nad Labem</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>Social Sciences</t>
   </si>
 </sst>
 </file>
@@ -485,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -496,7 +508,7 @@
     <col min="8" max="8" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -554,13 +566,19 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:21">
       <c r="A2">
         <v>2011</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <v>0.5</v>
@@ -569,54 +587,60 @@
         <v>6.48</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P2">
         <v>44555601</v>
       </c>
       <c r="Q2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="R2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="S2" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="T2" t="s">
+        <v>40</v>
+      </c>
+      <c r="U2" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:21">
       <c r="A3">
         <v>2015</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -625,46 +649,52 @@
         <v>9.6072311</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P3">
         <v>44555601</v>
       </c>
       <c r="Q3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="R3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="S3" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="T3" t="s">
+        <v>40</v>
+      </c>
+      <c r="U3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
